--- a/2.1.1/2.1.1.xlsx
+++ b/2.1.1/2.1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Study\Labs\2.1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3ED07-EAAA-4D65-8890-14585669A071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA59BAC9-AEAF-4021-B4E5-F92E535DD2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
   <si>
     <t>U</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>q = 5/72</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>Конец</t>
   </si>
 </sst>
 </file>
@@ -96,8 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -378,35 +387,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="L1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -442,8 +457,17 @@
         <f xml:space="preserve"> 1006*5/36*0.001*8</f>
         <v>1.1177777777777778</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q2">
+        <f xml:space="preserve"> 1006*5/36*0.001*1</f>
+        <v>0.13972222222222222</v>
+      </c>
+      <c r="R2">
+        <f>C6/40.7</f>
+        <v>0.98280098280098271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -479,8 +503,17 @@
         <f>SQRT(O2*29)</f>
         <v>5.6934660406079143</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <f xml:space="preserve"> 1006*5/36*0.001*2</f>
+        <v>0.27944444444444444</v>
+      </c>
+      <c r="R3">
+        <f>F6/40.7</f>
+        <v>1.7444717444717444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -516,41 +549,99 @@
         <f xml:space="preserve"> O3/29</f>
         <v>0.19632641519337635</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5">
+      <c r="Q4">
+        <f xml:space="preserve"> 1006*5/36*0.001*4</f>
+        <v>0.55888888888888888</v>
+      </c>
+      <c r="R4">
+        <f>I6/40.7</f>
+        <v>2.8501228501228497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f xml:space="preserve"> 1006*5/36*0.001*6</f>
+        <v>0.83833333333333337</v>
+      </c>
+      <c r="R5">
+        <f>L6/40.7</f>
+        <v>4.1523341523341522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>40</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>40</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>71</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>71</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>116</v>
       </c>
-      <c r="K5">
-        <v>70</v>
-      </c>
-      <c r="L5">
+      <c r="K6">
+        <v>116</v>
+      </c>
+      <c r="L6">
         <v>169</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>169</v>
       </c>
-      <c r="O5">
+      <c r="O6">
         <v>220</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="Q6">
+        <f xml:space="preserve"> 1006*5/36*0.001*8</f>
+        <v>1.1177777777777778</v>
+      </c>
+      <c r="R6">
+        <f>O6/40.7</f>
+        <v>5.4054054054054053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -569,7 +660,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -587,10 +679,6 @@
       <c r="H8" t="s">
         <v>4</v>
       </c>
-      <c r="I8">
-        <f xml:space="preserve"> 1006*5/72*0.001*4</f>
-        <v>0.27944444444444444</v>
-      </c>
       <c r="K8" t="s">
         <v>4</v>
       </c>
@@ -605,8 +693,17 @@
         <f xml:space="preserve"> 1006*5/72*0.001*8</f>
         <v>0.55888888888888888</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <f xml:space="preserve"> 1006*5/72*0.001*1</f>
+        <v>6.986111111111111E-2</v>
+      </c>
+      <c r="R8">
+        <f>C12/40.7</f>
+        <v>0.68796068796068788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -625,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="I9">
-        <f>SQRT(I8*29)</f>
+        <f>SQRT(Q10*29)</f>
         <v>2.8467330203039571</v>
       </c>
       <c r="K9" t="s">
@@ -642,8 +739,17 @@
         <f>SQRT(O8*29)</f>
         <v>4.025888445769179</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <f xml:space="preserve"> 1006*5/72*0.001*2</f>
+        <v>0.13972222222222222</v>
+      </c>
+      <c r="R9">
+        <f>F12/40.7</f>
+        <v>1.2530712530712529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -679,40 +785,107 @@
         <f xml:space="preserve"> O9/29</f>
         <v>0.13882373950928203</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11">
+      <c r="Q10">
+        <f xml:space="preserve"> 1006*5/72*0.001*4</f>
+        <v>0.27944444444444444</v>
+      </c>
+      <c r="R10">
+        <f>I12/40.7</f>
+        <v>2.2358722358722356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11">
+        <f xml:space="preserve"> 1006*5/72*0.001*6</f>
+        <v>0.41916666666666669</v>
+      </c>
+      <c r="R11">
+        <f>L12/40.7</f>
+        <v>3.4398034398034394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>28</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>28</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>51</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>51</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>91</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>91</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>140</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>140</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>179</v>
       </c>
+      <c r="Q12">
+        <f xml:space="preserve"> 1006*5/72*0.001*8</f>
+        <v>0.55888888888888888</v>
+      </c>
+      <c r="R12">
+        <f>O12/40.7</f>
+        <v>4.3980343980343974</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>